--- a/FileVari/QRnuovi/ELENCO.xlsx
+++ b/FileVari/QRnuovi/ELENCO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>PRODOTTI</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Aranciata</t>
   </si>
   <si>
-    <t>The alla Pesca</t>
-  </si>
-  <si>
     <t>Acqua Naturale</t>
   </si>
   <si>
@@ -142,12 +139,42 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>6814844568172;Aranciata;2016-07-30;Torino</t>
+  </si>
+  <si>
+    <t>The al Limone</t>
+  </si>
+  <si>
+    <t>3247681267372;The al Limone;2016-07-16;Milano</t>
+  </si>
+  <si>
+    <t>3425881275672;Acqua Naturale;2016-08-16;Milano</t>
+  </si>
+  <si>
+    <t>3425131374672;Trito per soffritto;2016-08-25;Figino Serenza</t>
+  </si>
+  <si>
+    <t>3477771345872;Trito di cipolle;2016-08-15;Figino Serenza</t>
+  </si>
+  <si>
+    <t>The al limone</t>
+  </si>
+  <si>
+    <t>3247681267372;The al Limone;2016-07-19;Pavia</t>
+  </si>
+  <si>
+    <t>3485851347592;Dado Vegetale;2016-08-15;Figino Serenza</t>
+  </si>
+  <si>
+    <t>9999998888881;Barretta di cioccolato;2020-08-15;Figino Serenza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,10 +879,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +907,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,10 +921,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,85 +1014,117 @@
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="21"/>
@@ -1075,7 +1134,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="22"/>
@@ -1085,7 +1144,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="21"/>
@@ -1095,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="22"/>
@@ -1105,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="21"/>
@@ -1115,7 +1174,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="22"/>
@@ -1125,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="21"/>
@@ -1135,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="22"/>
